--- a/src/main/resources/template/excel/export/storeChargeTotalExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeTotalExportTemplate.xlsx
@@ -36,7 +36,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="E3")</t>
+          <t>jx:area(lastCell="E4")</t>
         </r>
       </text>
     </comment>
@@ -117,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -220,14 +220,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,7 +536,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -549,13 +549,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -587,18 +587,18 @@
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/storeChargeTotalExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeTotalExportTemplate.xlsx
@@ -96,10 +96,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(E3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.parentName}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -109,6 +105,10 @@
   </si>
   <si>
     <t>${obj.amount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(E3:E3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -116,8 +116,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -207,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,11 +224,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,7 +540,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -582,13 +586,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -598,8 +602,8 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -608,8 +612,8 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/template/excel/export/storeChargeTotalExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeTotalExportTemplate.xlsx
@@ -60,10 +60,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>门店费用汇总查询</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>机构编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -109,6 +105,10 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(E3:E3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${titleName}汇总查询</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -117,8 +117,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -224,14 +224,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -239,6 +239,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -258,7 +326,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -540,7 +608,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,57 +621,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
